--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Col4a1-Cd93.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Col4a1-Cd93.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>212.4076363333334</v>
+        <v>338.6742503333333</v>
       </c>
       <c r="H2">
-        <v>637.2229090000001</v>
+        <v>1016.022751</v>
       </c>
       <c r="I2">
-        <v>0.5080632835800085</v>
+        <v>0.5849329800180821</v>
       </c>
       <c r="J2">
-        <v>0.5080632835800085</v>
+        <v>0.584932980018082</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>169.629438</v>
+        <v>209.26237</v>
       </c>
       <c r="N2">
-        <v>508.888314</v>
+        <v>627.78711</v>
       </c>
       <c r="O2">
-        <v>0.7428377317484701</v>
+        <v>0.8127157202241573</v>
       </c>
       <c r="P2">
-        <v>0.7428377317484702</v>
+        <v>0.8127157202241573</v>
       </c>
       <c r="Q2">
-        <v>36030.58797813172</v>
+        <v>70871.77628272661</v>
       </c>
       <c r="R2">
-        <v>324275.2918031855</v>
+        <v>637845.9865445396</v>
       </c>
       <c r="S2">
-        <v>0.3774085771592532</v>
+        <v>0.4753842281382582</v>
       </c>
       <c r="T2">
-        <v>0.3774085771592533</v>
+        <v>0.4753842281382581</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>212.4076363333334</v>
+        <v>338.6742503333333</v>
       </c>
       <c r="H3">
-        <v>637.2229090000001</v>
+        <v>1016.022751</v>
       </c>
       <c r="I3">
-        <v>0.5080632835800085</v>
+        <v>0.5849329800180821</v>
       </c>
       <c r="J3">
-        <v>0.5080632835800085</v>
+        <v>0.584932980018082</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.9848756666666665</v>
+        <v>0.9848756666666668</v>
       </c>
       <c r="N3">
-        <v>2.954626999999999</v>
+        <v>2.954627</v>
       </c>
       <c r="O3">
-        <v>0.004312947180081614</v>
+        <v>0.003824977881910862</v>
       </c>
       <c r="P3">
-        <v>0.004312947180081614</v>
+        <v>0.003824977881910862</v>
       </c>
       <c r="Q3">
-        <v>209.1951124388825</v>
+        <v>333.5520280798752</v>
       </c>
       <c r="R3">
-        <v>1882.756011949943</v>
+        <v>3001.968252718877</v>
       </c>
       <c r="S3">
-        <v>0.002191250106219403</v>
+        <v>0.002237355710969373</v>
       </c>
       <c r="T3">
-        <v>0.002191250106219403</v>
+        <v>0.002237355710969372</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>212.4076363333334</v>
+        <v>338.6742503333333</v>
       </c>
       <c r="H4">
-        <v>637.2229090000001</v>
+        <v>1016.022751</v>
       </c>
       <c r="I4">
-        <v>0.5080632835800085</v>
+        <v>0.5849329800180821</v>
       </c>
       <c r="J4">
-        <v>0.5080632835800085</v>
+        <v>0.584932980018082</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.118221666666667</v>
+        <v>1.763846666666667</v>
       </c>
       <c r="N4">
-        <v>9.354665000000001</v>
+        <v>5.291539999999999</v>
       </c>
       <c r="O4">
-        <v>0.01365525192599884</v>
+        <v>0.006850280411451801</v>
       </c>
       <c r="P4">
-        <v>0.01365525192599884</v>
+        <v>0.006850280411451801</v>
       </c>
       <c r="Q4">
-        <v>662.334093780054</v>
+        <v>597.3694475362821</v>
       </c>
       <c r="R4">
-        <v>5961.006844020486</v>
+        <v>5376.32502782654</v>
       </c>
       <c r="S4">
-        <v>0.006937732131635207</v>
+        <v>0.004006954935029995</v>
       </c>
       <c r="T4">
-        <v>0.006937732131635207</v>
+        <v>0.004006954935029995</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>212.4076363333334</v>
+        <v>338.6742503333333</v>
       </c>
       <c r="H5">
-        <v>637.2229090000001</v>
+        <v>1016.022751</v>
       </c>
       <c r="I5">
-        <v>0.5080632835800085</v>
+        <v>0.5849329800180821</v>
       </c>
       <c r="J5">
-        <v>0.5080632835800085</v>
+        <v>0.584932980018082</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>54.620752</v>
+        <v>45.474231</v>
       </c>
       <c r="N5">
-        <v>163.862256</v>
+        <v>136.422693</v>
       </c>
       <c r="O5">
-        <v>0.2391940691454494</v>
+        <v>0.1766090214824801</v>
       </c>
       <c r="P5">
-        <v>0.2391940691454494</v>
+        <v>0.1766090214824801</v>
       </c>
       <c r="Q5">
-        <v>11601.86482706919</v>
+        <v>15400.95109340983</v>
       </c>
       <c r="R5">
-        <v>104416.7834436227</v>
+        <v>138608.5598406884</v>
       </c>
       <c r="S5">
-        <v>0.1215257241829006</v>
+        <v>0.1033044412338246</v>
       </c>
       <c r="T5">
-        <v>0.1215257241829006</v>
+        <v>0.1033044412338245</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>485.815337</v>
       </c>
       <c r="I6">
-        <v>0.3873447295187379</v>
+        <v>0.279688040971731</v>
       </c>
       <c r="J6">
-        <v>0.3873447295187379</v>
+        <v>0.2796880409717309</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>169.629438</v>
+        <v>209.26237</v>
       </c>
       <c r="N6">
-        <v>508.888314</v>
+        <v>627.78711</v>
       </c>
       <c r="O6">
-        <v>0.7428377317484701</v>
+        <v>0.8127157202241573</v>
       </c>
       <c r="P6">
-        <v>0.7428377317484702</v>
+        <v>0.8127157202241573</v>
       </c>
       <c r="Q6">
-        <v>27469.5275290302</v>
+        <v>33887.6229343229</v>
       </c>
       <c r="R6">
-        <v>247225.7477612718</v>
+        <v>304988.6064089061</v>
       </c>
       <c r="S6">
-        <v>0.287734280280424</v>
+        <v>0.227306867656424</v>
       </c>
       <c r="T6">
-        <v>0.287734280280424</v>
+        <v>0.2273068676564239</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>485.815337</v>
       </c>
       <c r="I7">
-        <v>0.3873447295187379</v>
+        <v>0.279688040971731</v>
       </c>
       <c r="J7">
-        <v>0.3873447295187379</v>
+        <v>0.2796880409717309</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,16 +865,16 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9848756666666665</v>
+        <v>0.9848756666666668</v>
       </c>
       <c r="N7">
-        <v>2.954626999999999</v>
+        <v>2.954627</v>
       </c>
       <c r="O7">
-        <v>0.004312947180081614</v>
+        <v>0.003824977881910862</v>
       </c>
       <c r="P7">
-        <v>0.004312947180081614</v>
+        <v>0.003824977881910862</v>
       </c>
       <c r="Q7">
         <v>159.4892346349221</v>
@@ -883,10 +883,10 @@
         <v>1435.403111714299</v>
       </c>
       <c r="S7">
-        <v>0.001670597358897316</v>
+        <v>0.00106980057055185</v>
       </c>
       <c r="T7">
-        <v>0.001670597358897316</v>
+        <v>0.00106980057055185</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>485.815337</v>
       </c>
       <c r="I8">
-        <v>0.3873447295187379</v>
+        <v>0.279688040971731</v>
       </c>
       <c r="J8">
-        <v>0.3873447295187379</v>
+        <v>0.2796880409717309</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.118221666666667</v>
+        <v>1.763846666666667</v>
       </c>
       <c r="N8">
-        <v>9.354665000000001</v>
+        <v>5.291539999999999</v>
       </c>
       <c r="O8">
-        <v>0.01365525192599884</v>
+        <v>0.006850280411451801</v>
       </c>
       <c r="P8">
-        <v>0.01365525192599884</v>
+        <v>0.006850280411451801</v>
       </c>
       <c r="Q8">
-        <v>504.9599699441228</v>
+        <v>285.6345875943311</v>
       </c>
       <c r="R8">
-        <v>4544.639729497106</v>
+        <v>2570.71128834898</v>
       </c>
       <c r="S8">
-        <v>0.005289289863786246</v>
+        <v>0.001915941508385978</v>
       </c>
       <c r="T8">
-        <v>0.005289289863786246</v>
+        <v>0.001915941508385977</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>485.815337</v>
       </c>
       <c r="I9">
-        <v>0.3873447295187379</v>
+        <v>0.279688040971731</v>
       </c>
       <c r="J9">
-        <v>0.3873447295187379</v>
+        <v>0.2796880409717309</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>54.620752</v>
+        <v>45.474231</v>
       </c>
       <c r="N9">
-        <v>163.862256</v>
+        <v>136.422693</v>
       </c>
       <c r="O9">
-        <v>0.2391940691454494</v>
+        <v>0.1766090214824801</v>
       </c>
       <c r="P9">
-        <v>0.2391940691454494</v>
+        <v>0.1766090214824801</v>
       </c>
       <c r="Q9">
-        <v>8845.199680024476</v>
+        <v>7364.026286026949</v>
       </c>
       <c r="R9">
-        <v>79606.79712022028</v>
+        <v>66276.23657424253</v>
       </c>
       <c r="S9">
-        <v>0.09265056201563039</v>
+        <v>0.04939543123636921</v>
       </c>
       <c r="T9">
-        <v>0.09265056201563039</v>
+        <v>0.0493954312363692</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>43.38855633333333</v>
+        <v>77.79536166666666</v>
       </c>
       <c r="H10">
-        <v>130.165669</v>
+        <v>233.386085</v>
       </c>
       <c r="I10">
-        <v>0.1037822028484675</v>
+        <v>0.1343623634996766</v>
       </c>
       <c r="J10">
-        <v>0.1037822028484675</v>
+        <v>0.1343623634996766</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>169.629438</v>
+        <v>209.26237</v>
       </c>
       <c r="N10">
-        <v>508.888314</v>
+        <v>627.78711</v>
       </c>
       <c r="O10">
-        <v>0.7428377317484701</v>
+        <v>0.8127157202241573</v>
       </c>
       <c r="P10">
-        <v>0.7428377317484702</v>
+        <v>0.8127157202241573</v>
       </c>
       <c r="Q10">
-        <v>7359.976426454674</v>
+        <v>16279.64175737382</v>
       </c>
       <c r="R10">
-        <v>66239.78783809207</v>
+        <v>146516.7758163644</v>
       </c>
       <c r="S10">
-        <v>0.07709333615981517</v>
+        <v>0.1091984050226597</v>
       </c>
       <c r="T10">
-        <v>0.07709333615981519</v>
+        <v>0.1091984050226597</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>43.38855633333333</v>
+        <v>77.79536166666666</v>
       </c>
       <c r="H11">
-        <v>130.165669</v>
+        <v>233.386085</v>
       </c>
       <c r="I11">
-        <v>0.1037822028484675</v>
+        <v>0.1343623634996766</v>
       </c>
       <c r="J11">
-        <v>0.1037822028484675</v>
+        <v>0.1343623634996766</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.9848756666666665</v>
+        <v>0.9848756666666668</v>
       </c>
       <c r="N11">
-        <v>2.954626999999999</v>
+        <v>2.954627</v>
       </c>
       <c r="O11">
-        <v>0.004312947180081614</v>
+        <v>0.003824977881910862</v>
       </c>
       <c r="P11">
-        <v>0.004312947180081614</v>
+        <v>0.003824977881910862</v>
       </c>
       <c r="Q11">
-        <v>42.73233334449588</v>
+        <v>76.61875868503279</v>
       </c>
       <c r="R11">
-        <v>384.591000100463</v>
+        <v>689.5688281652951</v>
       </c>
       <c r="S11">
-        <v>0.0004476071591179557</v>
+        <v>0.0005139330685475304</v>
       </c>
       <c r="T11">
-        <v>0.0004476071591179557</v>
+        <v>0.0005139330685475303</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>43.38855633333333</v>
+        <v>77.79536166666666</v>
       </c>
       <c r="H12">
-        <v>130.165669</v>
+        <v>233.386085</v>
       </c>
       <c r="I12">
-        <v>0.1037822028484675</v>
+        <v>0.1343623634996766</v>
       </c>
       <c r="J12">
-        <v>0.1037822028484675</v>
+        <v>0.1343623634996766</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.118221666666667</v>
+        <v>1.763846666666667</v>
       </c>
       <c r="N12">
-        <v>9.354665000000001</v>
+        <v>5.291539999999999</v>
       </c>
       <c r="O12">
-        <v>0.01365525192599884</v>
+        <v>0.006850280411451801</v>
       </c>
       <c r="P12">
-        <v>0.01365525192599884</v>
+        <v>0.006850280411451801</v>
       </c>
       <c r="Q12">
-        <v>135.2951364439872</v>
+        <v>137.2190893578778</v>
       </c>
       <c r="R12">
-        <v>1217.656227995885</v>
+        <v>1234.9718042209</v>
       </c>
       <c r="S12">
-        <v>0.001417172125330938</v>
+        <v>0.0009204198667182011</v>
       </c>
       <c r="T12">
-        <v>0.001417172125330938</v>
+        <v>0.000920419866718201</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>43.38855633333333</v>
+        <v>77.79536166666666</v>
       </c>
       <c r="H13">
-        <v>130.165669</v>
+        <v>233.386085</v>
       </c>
       <c r="I13">
-        <v>0.1037822028484675</v>
+        <v>0.1343623634996766</v>
       </c>
       <c r="J13">
-        <v>0.1037822028484675</v>
+        <v>0.1343623634996766</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>54.620752</v>
+        <v>45.474231</v>
       </c>
       <c r="N13">
-        <v>163.862256</v>
+        <v>136.422693</v>
       </c>
       <c r="O13">
-        <v>0.2391940691454494</v>
+        <v>0.1766090214824801</v>
       </c>
       <c r="P13">
-        <v>0.2391940691454494</v>
+        <v>0.1766090214824801</v>
       </c>
       <c r="Q13">
-        <v>2369.91557512103</v>
+        <v>3537.684247158545</v>
       </c>
       <c r="R13">
-        <v>21329.24017608926</v>
+        <v>31839.1582244269</v>
       </c>
       <c r="S13">
-        <v>0.02482408740420338</v>
+        <v>0.02372960554175119</v>
       </c>
       <c r="T13">
-        <v>0.02482408740420338</v>
+        <v>0.02372960554175118</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.338549</v>
+        <v>0.5886170000000001</v>
       </c>
       <c r="H14">
-        <v>1.015647</v>
+        <v>1.765851</v>
       </c>
       <c r="I14">
-        <v>0.0008097840527861261</v>
+        <v>0.001016615510510267</v>
       </c>
       <c r="J14">
-        <v>0.0008097840527861261</v>
+        <v>0.001016615510510266</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>169.629438</v>
+        <v>209.26237</v>
       </c>
       <c r="N14">
-        <v>508.888314</v>
+        <v>627.78711</v>
       </c>
       <c r="O14">
-        <v>0.7428377317484701</v>
+        <v>0.8127157202241573</v>
       </c>
       <c r="P14">
-        <v>0.7428377317484702</v>
+        <v>0.8127157202241573</v>
       </c>
       <c r="Q14">
-        <v>57.427876605462</v>
+        <v>123.17538844229</v>
       </c>
       <c r="R14">
-        <v>516.850889449158</v>
+        <v>1108.57849598061</v>
       </c>
       <c r="S14">
-        <v>0.0006015381489777293</v>
+        <v>0.0008262194068154007</v>
       </c>
       <c r="T14">
-        <v>0.0006015381489777293</v>
+        <v>0.0008262194068154005</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.338549</v>
+        <v>0.5886170000000001</v>
       </c>
       <c r="H15">
-        <v>1.015647</v>
+        <v>1.765851</v>
       </c>
       <c r="I15">
-        <v>0.0008097840527861261</v>
+        <v>0.001016615510510267</v>
       </c>
       <c r="J15">
-        <v>0.0008097840527861261</v>
+        <v>0.001016615510510266</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.9848756666666665</v>
+        <v>0.9848756666666668</v>
       </c>
       <c r="N15">
-        <v>2.954626999999999</v>
+        <v>2.954627</v>
       </c>
       <c r="O15">
-        <v>0.004312947180081614</v>
+        <v>0.003824977881910862</v>
       </c>
       <c r="P15">
-        <v>0.004312947180081614</v>
+        <v>0.003824977881910862</v>
       </c>
       <c r="Q15">
-        <v>0.3334286720743332</v>
+        <v>0.5797145602863335</v>
       </c>
       <c r="R15">
-        <v>3.000858048669</v>
+        <v>5.217431042577001</v>
       </c>
       <c r="S15">
-        <v>3.492555846938983E-06</v>
+        <v>3.888531842109289E-06</v>
       </c>
       <c r="T15">
-        <v>3.492555846938983E-06</v>
+        <v>3.888531842109289E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.338549</v>
+        <v>0.5886170000000001</v>
       </c>
       <c r="H16">
-        <v>1.015647</v>
+        <v>1.765851</v>
       </c>
       <c r="I16">
-        <v>0.0008097840527861261</v>
+        <v>0.001016615510510267</v>
       </c>
       <c r="J16">
-        <v>0.0008097840527861261</v>
+        <v>0.001016615510510266</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.118221666666667</v>
+        <v>1.763846666666667</v>
       </c>
       <c r="N16">
-        <v>9.354665000000001</v>
+        <v>5.291539999999999</v>
       </c>
       <c r="O16">
-        <v>0.01365525192599884</v>
+        <v>0.006850280411451801</v>
       </c>
       <c r="P16">
-        <v>0.01365525192599884</v>
+        <v>0.006850280411451801</v>
       </c>
       <c r="Q16">
-        <v>1.055670827028333</v>
+        <v>1.038230133393333</v>
       </c>
       <c r="R16">
-        <v>9.501037443255001</v>
+        <v>9.34407120054</v>
       </c>
       <c r="S16">
-        <v>1.10578052464509E-05</v>
+        <v>6.964101317626552E-06</v>
       </c>
       <c r="T16">
-        <v>1.10578052464509E-05</v>
+        <v>6.964101317626551E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.338549</v>
+        <v>0.5886170000000001</v>
       </c>
       <c r="H17">
-        <v>1.015647</v>
+        <v>1.765851</v>
       </c>
       <c r="I17">
-        <v>0.0008097840527861261</v>
+        <v>0.001016615510510267</v>
       </c>
       <c r="J17">
-        <v>0.0008097840527861261</v>
+        <v>0.001016615510510266</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>54.620752</v>
+        <v>45.474231</v>
       </c>
       <c r="N17">
-        <v>163.862256</v>
+        <v>136.422693</v>
       </c>
       <c r="O17">
-        <v>0.2391940691454494</v>
+        <v>0.1766090214824801</v>
       </c>
       <c r="P17">
-        <v>0.2391940691454494</v>
+        <v>0.1766090214824801</v>
       </c>
       <c r="Q17">
-        <v>18.491800968848</v>
+        <v>26.766905428527</v>
       </c>
       <c r="R17">
-        <v>166.426208719632</v>
+        <v>240.902148856743</v>
       </c>
       <c r="S17">
-        <v>0.0001936955427150069</v>
+        <v>0.0001795434705351301</v>
       </c>
       <c r="T17">
-        <v>0.0001936955427150069</v>
+        <v>0.0001795434705351301</v>
       </c>
     </row>
   </sheetData>
